--- a/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -578,12 +578,12 @@
         <v>9156.67</v>
       </c>
       <c r="F2" s="5">
-        <v>1635.19</v>
+        <v>1635.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>581.87</v>
+        <v>581.86</v>
       </c>
       <c r="B3" s="4">
         <v>45.16</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>536.71</v>
+        <v>536.70000000000005</v>
       </c>
       <c r="F3" s="4">
-        <v>141.79</v>
+        <v>141.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -707,27 +707,30 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="6">
         <v>42005</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="3">
         <v>10000</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -787,13 +790,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>838.27</v>
+        <v>838.28</v>
       </c>
       <c r="G4" s="5">
-        <v>8318.4</v>
+        <v>8318.39</v>
       </c>
       <c r="H4" s="4">
-        <v>50.22</v>
+        <v>50.21</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -833,7 +836,7 @@
         <v>796.92</v>
       </c>
       <c r="G5" s="5">
-        <v>7521.48</v>
+        <v>7521.47</v>
       </c>
       <c r="H5" s="4">
         <v>91.57</v>
@@ -876,7 +879,7 @@
         <v>796.92</v>
       </c>
       <c r="G6" s="5">
-        <v>6724.56</v>
+        <v>6724.55</v>
       </c>
       <c r="H6" s="4">
         <v>91.57</v>
@@ -919,7 +922,7 @@
         <v>821.24</v>
       </c>
       <c r="G7" s="5">
-        <v>5903.32</v>
+        <v>5903.31</v>
       </c>
       <c r="H7" s="4">
         <v>67.25</v>
@@ -962,7 +965,7 @@
         <v>829.46</v>
       </c>
       <c r="G8" s="5">
-        <v>5073.8599999999997</v>
+        <v>5073.8500000000004</v>
       </c>
       <c r="H8" s="4">
         <v>59.03</v>
@@ -1005,7 +1008,7 @@
         <v>837.75</v>
       </c>
       <c r="G9" s="5">
-        <v>4236.1099999999997</v>
+        <v>4236.1000000000004</v>
       </c>
       <c r="H9" s="4">
         <v>50.74</v>
@@ -1048,7 +1051,7 @@
         <v>846.13</v>
       </c>
       <c r="G10" s="5">
-        <v>3389.98</v>
+        <v>3389.97</v>
       </c>
       <c r="H10" s="4">
         <v>42.36</v>
@@ -1091,7 +1094,7 @@
         <v>854.59</v>
       </c>
       <c r="G11" s="5">
-        <v>2535.39</v>
+        <v>2535.38</v>
       </c>
       <c r="H11" s="4">
         <v>33.9</v>
@@ -1134,7 +1137,7 @@
         <v>863.14</v>
       </c>
       <c r="G12" s="5">
-        <v>1672.25</v>
+        <v>1672.24</v>
       </c>
       <c r="H12" s="4">
         <v>25.35</v>
@@ -1177,7 +1180,7 @@
         <v>871.77</v>
       </c>
       <c r="G13" s="4">
-        <v>800.48</v>
+        <v>800.47</v>
       </c>
       <c r="H13" s="4">
         <v>16.72</v>
@@ -1217,7 +1220,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>800.48</v>
+        <v>800.47</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>808.48</v>
+        <v>808.47</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <v>808.48</v>
+        <v>808.47</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -203,6 +208,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -250,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +291,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,10 +690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -659,7 +701,7 @@
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -697,15 +739,16 @@
       <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6">
@@ -731,8 +774,9 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -770,14 +814,15 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -813,14 +858,15 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -856,14 +902,15 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -899,14 +946,15 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -942,14 +990,15 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -985,14 +1034,15 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1028,14 +1078,15 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1071,14 +1122,15 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1114,14 +1166,15 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1157,14 +1210,15 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1200,14 +1254,15 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1243,10 +1298,11 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>808.47</v>
       </c>
     </row>
@@ -1259,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/440-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -120,14 +115,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -197,6 +197,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,26 +294,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,7 +543,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,7 +662,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,50 +670,50 @@
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -775,6 +744,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -806,18 +776,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>888.49</v>
+        <v>45.16</v>
       </c>
       <c r="L3" s="4">
         <v>888.49</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>843.33</v>
+      </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -855,13 +826,14 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <v>888.49</v>
       </c>
@@ -899,13 +871,14 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4">
         <v>888.49</v>
       </c>
@@ -943,13 +916,14 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <v>888.49</v>
       </c>
@@ -987,13 +961,14 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4">
         <v>888.49</v>
       </c>
@@ -1031,13 +1006,14 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <v>888.49</v>
       </c>
@@ -1075,13 +1051,14 @@
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
       <c r="O9" s="4">
         <v>0</v>
       </c>
+      <c r="P9" s="4"/>
       <c r="Q9" s="4">
         <v>888.49</v>
       </c>
@@ -1119,13 +1096,14 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4">
         <v>888.49</v>
       </c>
@@ -1163,13 +1141,14 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
       <c r="O11" s="4">
         <v>0</v>
       </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4">
         <v>888.49</v>
       </c>
@@ -1207,13 +1186,14 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4">
         <v>888.49</v>
       </c>
@@ -1251,13 +1231,14 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
       <c r="O13" s="4">
         <v>0</v>
       </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="4">
         <v>888.49</v>
       </c>
@@ -1295,13 +1276,14 @@
       <c r="L14" s="4">
         <v>0</v>
       </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4">
         <v>808.47</v>
       </c>
